--- a/results/searchstims/source_data/10stims/test_results_table_mean_sd_single_col.xlsx
+++ b/results/searchstims/source_data/10stims/test_results_table_mean_sd_single_col.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.785 (0.785)</t>
+          <t>0.785 (0.004)</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.874 (0.874)</t>
+          <t>0.874 (0.005)</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.878 (0.878)</t>
+          <t>0.878 (0.010)</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.914 (0.914)</t>
+          <t>0.914 (0.011)</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.939 (0.939)</t>
+          <t>0.939 (0.161)</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.956 (0.956)</t>
+          <t>0.956 (0.045)</t>
         </is>
       </c>
     </row>
@@ -562,12 +562,12 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>CORnet S</t>
+          <t>CORnet Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.000 (1.000)</t>
+          <t>1.000 (0.000)</t>
         </is>
       </c>
     </row>
@@ -575,12 +575,12 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>CORnet Z</t>
+          <t>CORnet S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.000 (1.000)</t>
+          <t>1.000 (0.001)</t>
         </is>
       </c>
     </row>
